--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2070045.779184435</v>
+        <v>2073353.616073467</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5121836.830897975</v>
+        <v>5121836.830897974</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19384698280639</v>
+        <v>30.26709059570747</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="3">
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="E3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="F3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="G3" t="n">
-        <v>46.38724422570589</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.892417739585685</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -856,34 +856,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.170977004479181</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I5" t="n">
-        <v>178.1573130319831</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>121.7956965137215</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1139,67 +1139,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>82.75077256489919</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>31.60815104066432</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1373,25 +1373,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="E11" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>118.5540130169416</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1628,7 +1628,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>62.13484214871502</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1926,22 +1926,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>99.465894931713</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.583694061602047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2002,64 +2002,64 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>110.1044675570004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>118.5628686044508</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>81.36663396216805</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>111.5786709947009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,55 +2710,55 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,61 +2801,61 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>19.72793538656374</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>151.7067079312782</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>73.72440752469434</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3029,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>175.5171288722966</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>182.4881084374379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,58 +3199,58 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,76 +3263,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>92.95466700954542</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3.265316057196634</v>
-      </c>
-      <c r="S35" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,25 +3345,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.86695539771652</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>184.9988682859666</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>62.52515684565935</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,25 +3743,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,16 +3782,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>81.00537765493296</v>
       </c>
       <c r="T41" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>81.10080392862737</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>178.7609793817</v>
       </c>
     </row>
     <row r="43">
@@ -3910,46 +3910,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>241.0142888776591</v>
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>35.52088343826097</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>35.14216764492971</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>41.79932185354235</v>
+        <v>34.85382110433888</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
+        <v>110.2358097604965</v>
+      </c>
+      <c r="O2" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="O2" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4370,10 +4370,10 @@
         <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.050116039799</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>214.050116039799</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>159.9970564337892</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4410,19 +4410,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>55.11790488024824</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4431,28 +4431,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>59.08819457959154</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.76023320505688</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="C4" t="n">
-        <v>84.76023320505688</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="D4" t="n">
-        <v>84.76023320505688</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="E4" t="n">
-        <v>84.76023320505688</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="F4" t="n">
-        <v>84.76023320505688</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>84.76023320505688</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
         <v>80.82849811456629</v>
@@ -4504,34 +4504,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>84.76023320505688</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>84.76023320505688</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.76023320505688</v>
+        <v>80.82849811456629</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>470.2141014732327</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>454.7567908518841</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
-        <v>211.3080142077841</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4656,10 +4656,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4677,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>511.6380517254448</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>511.6380517254448</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>605.8836425597472</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>605.8836425597472</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>605.8836425597472</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="10">
@@ -4939,22 +4939,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5081,10 +5081,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>844.3056272106952</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5121,49 +5121,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5230,19 +5230,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5264,16 +5264,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>82.7977425798823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,13 +5361,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5385,22 +5385,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>787.171420448546</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C18" t="n">
-        <v>612.718391167419</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D18" t="n">
-        <v>463.7839815061678</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="E18" t="n">
-        <v>304.5465265007123</v>
+        <v>462.1513342039856</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,16 +5595,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
         <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
+        <v>234.810827406191</v>
+      </c>
+      <c r="N18" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N18" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5637,7 +5637,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>955.386757468614</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5707,16 +5707,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
         <v>262.7299197543128</v>
@@ -5771,13 +5771,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
         <v>749.627473042513</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.8099852548154</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C21" t="n">
-        <v>102.8099852548154</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,13 +5832,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X21" t="n">
-        <v>310.5702840197694</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y21" t="n">
-        <v>102.8099852548154</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="22">
@@ -5941,10 +5941,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>430.5683595072983</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C24" t="n">
-        <v>256.1153302261713</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="D24" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>881.8686363569311</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>881.8686363569311</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>881.8686363569311</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>881.8686363569311</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>881.8686363569311</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>638.4198597128311</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X24" t="n">
-        <v>430.5683595072983</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y24" t="n">
-        <v>430.5683595072983</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="25">
@@ -6169,25 +6169,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y26" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>417.2522547781879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>417.2522547781879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>417.2522547781879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>417.2522547781879</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>417.2522547781879</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>417.2522547781879</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>738.7078125165641</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C29" t="n">
-        <v>738.7078125165641</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D29" t="n">
-        <v>738.7078125165641</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E29" t="n">
-        <v>738.7078125165641</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y29" t="n">
-        <v>738.7078125165641</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>417.9156620931329</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>637.4007120408221</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>637.4007120408221</v>
       </c>
       <c r="V30" t="n">
-        <v>661.3644387372331</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="W30" t="n">
-        <v>417.9156620931329</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X30" t="n">
-        <v>417.9156620931329</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y30" t="n">
-        <v>417.9156620931329</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6640,31 +6640,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.7186438601369</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.7186438601369</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
         <v>20.03527576299844</v>
@@ -6783,13 +6783,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V33" t="n">
-        <v>353.3011080883284</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W33" t="n">
-        <v>353.3011080883284</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X33" t="n">
-        <v>353.3011080883284</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
         <v>829.5248650203655</v>
@@ -6898,10 +6898,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>960.7588564629629</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>627.7355178317791</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>478.8011081705279</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>319.5636531650724</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>173.0290951919573</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>34.29826977457284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>34.29826977457284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y36" t="n">
-        <v>627.7355178317791</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7111,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82.43786719673733</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>290.1981659616912</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>290.1981659616912</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.43786719673733</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
         <v>829.5248650203655</v>
@@ -7369,13 +7369,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T41" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U41" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>353.3011080883284</v>
+        <v>615.2751726504672</v>
       </c>
       <c r="C42" t="n">
-        <v>353.3011080883284</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="D42" t="n">
-        <v>353.3011080883284</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E42" t="n">
-        <v>353.3011080883284</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>271.3811041200179</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
         <v>132.6502787026334</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X42" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y42" t="n">
-        <v>353.3011080883284</v>
+        <v>783.4905096705352</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7676,22 +7676,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>145.0779112883388</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="C45" t="n">
-        <v>145.0779112883388</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D45" t="n">
-        <v>145.0779112883388</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E45" t="n">
-        <v>145.0779112883388</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0779112883388</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>145.0779112883388</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X45" t="n">
-        <v>521.0535470733607</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y45" t="n">
-        <v>313.2932483084068</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="46">
@@ -7834,16 +7834,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
         <v>829.5248650203655</v>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>271.4402576706899</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,13 +8067,13 @@
         <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8304,13 +8304,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8456,7 +8456,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>185.3423563661624</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8781,13 +8781,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>356.2611315939937</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,16 +10431,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10911,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5053919605859</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11388,10 +11388,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P45" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23261,25 +23261,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>123.8085460246003</v>
       </c>
       <c r="E11" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>47.97917063292574</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23516,7 +23516,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>27.26179070270006</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,19 +23625,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23814,22 +23814,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>45.60331746167088</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>197.0990017157023</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23978,10 +23978,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24051,7 +24051,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24066,7 +24066,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>6.703079128258395</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>115.8369145239744</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24181,13 +24181,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>316.5592023139553</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>28.88219696018795</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,7 +24303,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>18.79120019047508</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24446,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24494,22 +24494,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24528,13 +24528,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>46.06640946070004</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,16 +24576,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,19 +24689,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>387.1481103551477</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,16 +24722,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,10 +24740,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,19 +24768,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>48.45802076354343</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>159.0761796247309</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8070558482636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24853,7 +24853,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24880,7 +24880,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24917,19 +24917,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>145.0597660285826</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24968,22 +24968,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,7 +24999,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>76.17785428862305</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>23.19458733986647</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,10 +25199,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,25 +25233,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>74.52967745369855</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>40.94251379500827</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25333,10 +25333,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,10 +25351,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25436,28 +25436,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,28 +25470,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>110.1833421426564</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,7 +25631,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25640,16 +25640,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,16 +25670,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>128.0146919313124</v>
       </c>
       <c r="T41" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>63.96840846475651</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25755,16 +25755,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>26.92171639560434</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25916,13 +25916,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>108.226679839754</v>
@@ -25941,31 +25941,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>131.0123002116064</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>77.09327659156675</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26001,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26074,7 +26074,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>324013.3114360983</v>
+        <v>324013.3114360984</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>324013.3114360984</v>
+        <v>324013.3114360983</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>324013.3114360984</v>
+        <v>324013.3114360983</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>324013.3114360982</v>
+        <v>324013.3114360984</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>324013.3114360983</v>
+        <v>324013.3114360982</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>324013.3114360984</v>
+        <v>324013.3114360982</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>324013.3114360983</v>
+        <v>324013.3114360984</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>324013.3114360984</v>
+        <v>324013.3114360983</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="E2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="F2" t="n">
         <v>257549.0424235652</v>
@@ -26335,7 +26335,7 @@
         <v>257549.0424235651</v>
       </c>
       <c r="J2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="K2" t="n">
         <v>257549.0424235651</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329956.5536505856</v>
+        <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472497</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="P4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251536.3769710278</v>
+        <v>251834.3829953797</v>
       </c>
       <c r="C6" t="n">
-        <v>247916.1473897833</v>
+        <v>248324.7205622264</v>
       </c>
       <c r="D6" t="n">
-        <v>308492.4695764512</v>
+        <v>308901.0427488948</v>
       </c>
       <c r="E6" t="n">
-        <v>242307.2679896562</v>
+        <v>242715.8411620995</v>
       </c>
       <c r="F6" t="n">
-        <v>242307.2679896562</v>
+        <v>242715.8411620995</v>
       </c>
       <c r="G6" t="n">
-        <v>242307.2679896562</v>
+        <v>242715.8411620996</v>
       </c>
       <c r="H6" t="n">
-        <v>242307.2679896562</v>
+        <v>242715.8411620995</v>
       </c>
       <c r="I6" t="n">
-        <v>242307.2679896562</v>
+        <v>242715.8411620995</v>
       </c>
       <c r="J6" t="n">
-        <v>228306.0358493769</v>
+        <v>228714.6090218202</v>
       </c>
       <c r="K6" t="n">
-        <v>194050.3150560235</v>
+        <v>194458.8882284669</v>
       </c>
       <c r="L6" t="n">
-        <v>242307.2679896562</v>
+        <v>242715.8411620995</v>
       </c>
       <c r="M6" t="n">
-        <v>242307.2679896561</v>
+        <v>242715.8411620994</v>
       </c>
       <c r="N6" t="n">
-        <v>242307.2679896562</v>
+        <v>242715.8411620995</v>
       </c>
       <c r="O6" t="n">
-        <v>242307.2679896562</v>
+        <v>242715.8411620995</v>
       </c>
       <c r="P6" t="n">
-        <v>242307.2679896562</v>
+        <v>242715.8411620994</v>
       </c>
     </row>
   </sheetData>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>328.417841062312</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>390.1088905323286</v>
+        <v>385.0356469194276</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -27461,19 +27461,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>90.95627293750474</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>205.3077389352137</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27552,7 +27552,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>158.3347547678539</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>217.4136763476156</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I5" t="n">
-        <v>32.3185765384228</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27670,7 +27670,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,13 +27749,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>129.8992866471982</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>317.3055321907214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27944,16 +27944,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,19 +27983,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>117.4139561299224</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>220.0868321202553</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34787,13 @@
         <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -35024,13 +35024,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>46.78797658628819</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35501,13 +35501,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,13 +37631,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9091475161414</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38108,10 +38108,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P45" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2073353.616073467</v>
+        <v>2075677.287887336</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>25.19384698280639</v>
       </c>
       <c r="G2" t="n">
-        <v>30.26709059570747</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,14 +706,14 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
         <v>53.51252900994975</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.170977004479181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>185.0333587736945</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40.47627913313511</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>15.19568529015351</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>121.7956965137215</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>133.186967585368</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>112.9995969463466</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1260,10 +1262,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>82.75077256489919</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>234.254352148759</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>241.0142888776591</v>
@@ -1385,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.5540130169416</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>68.41774016236951</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1500,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1616,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>121.2086027464166</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,58 +1858,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>99.465894931713</v>
+        <v>22.3503517044692</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1944,7 +1946,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,67 +2080,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>10.27068583523948</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,22 +2213,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>110.1044675570004</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,10 +2399,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>118.5628686044508</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>60.92799059016251</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>40.47627913313511</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -2834,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>2.789345313863375</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>151.7067079312782</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2965,49 +2967,49 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,70 +3028,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3120,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>66.53225436547997</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>175.5171288722966</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>92.95466700954542</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3393,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>184.9988682859666</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3430,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3503,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,22 +3547,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3582,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3627,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>131.4480216276078</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>68.3854176612075</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -3788,13 +3790,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>81.00537765493296</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3816,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>26.7403629190007</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>178.7609793817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,55 +3991,55 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>35.52088343826097</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>163.715900453699</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.79932185354235</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>41.79932185354235</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
-        <v>41.79932185354235</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>41.79932185354235</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>34.85382110433888</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4337,13 +4339,13 @@
         <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
         <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4352,28 +4354,28 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
         <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
         <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.79932185354235</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4415,19 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4437,19 +4439,19 @@
         <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="W3" t="n">
         <v>113.1412541856014</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1412541856014</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="Y3" t="n">
         <v>59.08819457959154</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="I4" t="n">
         <v>80.82849811456629</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>315.6850394389064</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343.4227147053767</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C6" t="n">
-        <v>168.9696854242497</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>377.7840429764083</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W6" t="n">
-        <v>511.6380517254448</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X6" t="n">
-        <v>511.6380517254448</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y6" t="n">
-        <v>511.6380517254448</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>362.4348659156472</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="C9" t="n">
-        <v>362.4348659156472</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D9" t="n">
-        <v>362.4348659156472</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4890,10 +4892,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>605.8836425597472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>605.8836425597472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>605.8836425597472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>362.4348659156472</v>
+        <v>626.2670683375027</v>
       </c>
       <c r="X9" t="n">
-        <v>362.4348659156472</v>
+        <v>626.2670683375027</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.4348659156472</v>
+        <v>418.5067695725487</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D11" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E11" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5078,13 +5080,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>844.3056272106952</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="C12" t="n">
-        <v>669.8525979295682</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D12" t="n">
-        <v>520.918188268317</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E12" t="n">
-        <v>361.6807332628614</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,19 +5126,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5148,22 +5150,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5230,19 +5232,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,10 +5363,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
         <v>473.4149733950735</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>298.4948343740486</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W15" t="n">
-        <v>55.04605772994853</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5549,16 +5551,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>795.8418184905681</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C18" t="n">
-        <v>621.3887892094411</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="D18" t="n">
-        <v>621.3887892094411</v>
+        <v>405.5176083365153</v>
       </c>
       <c r="E18" t="n">
-        <v>462.1513342039856</v>
+        <v>246.2801533310598</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5630,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="19">
@@ -5692,19 +5694,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5859,22 +5861,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>376.0670529769968</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>376.0670529769968</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>376.0670529769968</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5947,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6029,10 +6031,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>313.4946457291688</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="C24" t="n">
-        <v>139.0416164480418</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>689.4702815141908</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X24" t="n">
-        <v>689.4702815141908</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y24" t="n">
-        <v>481.7099827492369</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6315,40 +6317,40 @@
         <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>176.4352409821462</v>
       </c>
     </row>
     <row r="28">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D29" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E29" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F29" t="n">
-        <v>72.23626279480629</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G29" t="n">
-        <v>72.23626279480629</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H29" t="n">
-        <v>72.23626279480629</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
         <v>31.35113235729608</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.4883050441255</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>637.4007120408221</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>637.4007120408221</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>402.2486038090794</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>402.2486038090794</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>402.2486038090794</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y30" t="n">
-        <v>194.4883050441255</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6655,16 +6657,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>200.6087086942878</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>87.23957310186709</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6783,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>197.3253049269343</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>20.03527576299844</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X33" t="n">
-        <v>20.03527576299844</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C35" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D35" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E35" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F35" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>718.7806050553886</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>718.7806050553886</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V35" t="n">
-        <v>718.7806050553886</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W35" t="n">
-        <v>718.7806050553886</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X35" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y35" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>401.5856725968725</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>401.5856725968725</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>401.5856725968725</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>193.7341723913397</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C39" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="40">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>730.8505943024719</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C41" t="n">
-        <v>730.8505943024719</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D41" t="n">
-        <v>730.8505943024719</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E41" t="n">
-        <v>730.8505943024719</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F41" t="n">
-        <v>730.8505943024719</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G41" t="n">
-        <v>487.4018176583718</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="I41" t="n">
         <v>31.35113235729608</v>
@@ -7436,25 +7438,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>730.8505943024719</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>730.8505943024719</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>730.8505943024719</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V41" t="n">
-        <v>730.8505943024719</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W41" t="n">
-        <v>730.8505943024719</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X41" t="n">
-        <v>730.8505943024719</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y41" t="n">
-        <v>730.8505943024719</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>615.2751726504672</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C42" t="n">
-        <v>440.8221433693402</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D42" t="n">
-        <v>291.8877337080889</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="E42" t="n">
-        <v>132.6502787026334</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="F42" t="n">
-        <v>132.6502787026334</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7500,10 +7502,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W42" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X42" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y42" t="n">
-        <v>783.4905096705352</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="43">
@@ -7625,16 +7627,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,22 +7669,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
         <v>262.7299197543128</v>
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7601307206374</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C45" t="n">
-        <v>580.3071014395105</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>431.3726917782591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7731,19 +7733,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>798.6875590927584</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="V45" t="n">
-        <v>790.6398109613051</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="W45" t="n">
-        <v>790.6398109613051</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X45" t="n">
-        <v>790.6398109613051</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.6398109613051</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>282.5834023809789</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>241.9453110519923</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,7 +9965,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10431,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>242.4075215744184</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11148,13 +11150,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>123.8085460246003</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>140.9160811946027</v>
@@ -23273,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>47.97917063292574</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>104.2907588259462</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23388,10 +23390,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23577,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>26.23646281822218</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,22 +23624,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23735,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23744,16 +23746,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23789,13 +23791,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>45.60331746167088</v>
+        <v>122.7188606889147</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23832,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,7 +23870,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23932,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23941,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24060,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>127.0728313279712</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>115.8369145239744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24269,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>367.9216046054329</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,10 +24287,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>28.88219696018795</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,10 +24302,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>51.30745364633395</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,31 +24442,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>10.95062675665318</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>169.9996104372708</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>169.9191536744524</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>48.45802076354343</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24853,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24895,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,16 +24970,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>22.86437848593511</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>76.17785428862305</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>116.0654025766999</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25281,19 +25283,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>40.94251379500827</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25391,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25470,25 +25472,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>120.2469615333118</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>142.0904719091984</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>128.0146919313124</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25704,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>118.3288494743832</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>26.92171639560434</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25865,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,25 +25909,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>247.4175514543149</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>131.0123002116064</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25992,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>36.44882824112258</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26074,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>324013.3114360984</v>
+        <v>324013.3114360983</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>324013.3114360984</v>
+        <v>324013.3114360983</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>324013.3114360982</v>
+        <v>324013.3114360983</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>324013.3114360983</v>
+        <v>324013.3114360982</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>324013.3114360982</v>
+        <v>324013.3114360983</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>324013.3114360984</v>
+        <v>324013.3114360983</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>324013.3114360983</v>
+        <v>324013.3114360984</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="F2" t="n">
         <v>257549.0424235652</v>
       </c>
       <c r="G2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="H2" t="n">
         <v>257549.0424235651</v>
@@ -26335,7 +26337,7 @@
         <v>257549.0424235651</v>
       </c>
       <c r="J2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="K2" t="n">
         <v>257549.0424235651</v>
@@ -26344,7 +26346,7 @@
         <v>257549.0424235651</v>
       </c>
       <c r="M2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="N2" t="n">
         <v>257549.0424235651</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26418,10 +26420,10 @@
         <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
+        <v>279125.0601321633</v>
+      </c>
+      <c r="D4" t="n">
         <v>279125.0601321634</v>
-      </c>
-      <c r="D4" t="n">
-        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
         <v>179.5324977039669</v>
@@ -26454,7 +26456,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
         <v>179.5324977039669</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251834.3829953797</v>
+        <v>251834.3829953798</v>
       </c>
       <c r="C6" t="n">
-        <v>248324.7205622264</v>
+        <v>248324.7205622267</v>
       </c>
       <c r="D6" t="n">
-        <v>308901.0427488948</v>
+        <v>308901.0427488949</v>
       </c>
       <c r="E6" t="n">
         <v>242715.8411620995</v>
       </c>
       <c r="F6" t="n">
+        <v>242715.8411620996</v>
+      </c>
+      <c r="G6" t="n">
         <v>242715.8411620995</v>
       </c>
-      <c r="G6" t="n">
-        <v>242715.8411620996</v>
-      </c>
       <c r="H6" t="n">
-        <v>242715.8411620995</v>
+        <v>242715.8411620994</v>
       </c>
       <c r="I6" t="n">
-        <v>242715.8411620995</v>
+        <v>242715.8411620994</v>
       </c>
       <c r="J6" t="n">
         <v>228714.6090218202</v>
       </c>
       <c r="K6" t="n">
-        <v>194458.8882284669</v>
+        <v>194458.8882284668</v>
       </c>
       <c r="L6" t="n">
         <v>242715.8411620995</v>
       </c>
       <c r="M6" t="n">
-        <v>242715.8411620994</v>
+        <v>242715.8411620995</v>
       </c>
       <c r="N6" t="n">
         <v>242715.8411620995</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>381.682198758905</v>
       </c>
       <c r="G2" t="n">
-        <v>385.0356469194276</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27509,7 +27511,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>153.7774844691157</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27518,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>205.3077389352137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,10 +27554,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>158.3347547678539</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
         <v>39.84665110672302</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.4136763476156</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>221.8426869680169</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>298.998522982632</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27673,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>142.4493951652474</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>129.8992866471982</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>152.4099661909219</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27859,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>293.8764487953648</v>
       </c>
       <c r="G8" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27935,19 +27937,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>117.4139561299224</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>17.44063101216059</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>40.41943799383367</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570935</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35419,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,7 +36685,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>99.8112771299739</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37868,13 +37870,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2075677.287887336</v>
+        <v>2006825.991445897</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.19384698280639</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H4" t="n">
-        <v>3.89241773958567</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>185.0333587736945</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>15.19568529015351</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>97.01986919358306</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1031,19 +1031,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.83685490770591</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>112.9995969463466</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1223,13 +1223,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>234.254352148759</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>68.41774016236951</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>138.369928292314</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>121.2086027464166</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>98.10479885422592</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1849,67 +1849,67 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.3503517044692</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10.27068583523948</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>98.10479885422592</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2317,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>60.92799059016251</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>95.77809019286801</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,64 +2566,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.789345313863375</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>66.53225436547997</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>120.9273370453295</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>129.2120888579987</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,55 +3435,55 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
@@ -3514,61 +3514,61 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>40.47627913313517</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>73.61300793312519</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>131.4480216276078</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3669,61 +3669,61 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3760,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>68.3854176612075</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>44.6546398735026</v>
       </c>
       <c r="F42" t="n">
-        <v>26.7403629190007</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>80.33470701582003</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>163.715900453699</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>70.40405117388919</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
         <v>16.35099156787933</v>
@@ -4342,10 +4342,10 @@
         <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4354,25 +4354,25 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
+        <v>203.9585006715719</v>
+      </c>
+      <c r="S2" t="n">
+        <v>203.9585006715719</v>
+      </c>
+      <c r="T2" t="n">
+        <v>203.9585006715719</v>
+      </c>
+      <c r="U2" t="n">
         <v>149.9054410655621</v>
       </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
         <v>149.9054410655621</v>
       </c>
-      <c r="T2" t="n">
-        <v>95.85238145955221</v>
-      </c>
-      <c r="U2" t="n">
-        <v>95.85238145955221</v>
-      </c>
-      <c r="V2" t="n">
-        <v>95.85238145955221</v>
-      </c>
       <c r="W2" t="n">
-        <v>95.85238145955221</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>95.85238145955221</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
         <v>95.85238145955221</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.08819457959154</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C3" t="n">
-        <v>59.08819457959154</v>
+        <v>214.050116039799</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08819457959154</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959154</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="F3" t="n">
         <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4433,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>113.1412541856014</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>113.1412541856014</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>113.1412541856014</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>113.1412541856014</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>59.08819457959154</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.08819457959154</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="C4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="D4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="E4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="F4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="G4" t="n">
-        <v>138.8132928110667</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
         <v>26.77543850855644</v>
@@ -4509,31 +4509,31 @@
         <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="X4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.8132928110667</v>
+        <v>134.8815577205762</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>526.7184526376595</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="C6" t="n">
-        <v>526.7184526376595</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="D6" t="n">
-        <v>377.7840429764083</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>526.7184526376595</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W6" t="n">
-        <v>526.7184526376595</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X6" t="n">
-        <v>526.7184526376595</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y6" t="n">
-        <v>526.7184526376595</v>
+        <v>118.0351436353046</v>
       </c>
     </row>
     <row r="7">
@@ -4704,28 +4704,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
         <v>243.9530410142718</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>418.5067695725487</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>418.5067695725487</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>269.5723599112974</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4892,13 +4892,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>626.2670683375027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>626.2670683375027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>418.5067695725487</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
         <v>41.77557929797318</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C11" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="D11" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
         <v>506.1786963984129</v>
@@ -5032,7 +5032,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>533.6469426057913</v>
+        <v>159.0487474458835</v>
       </c>
       <c r="C12" t="n">
-        <v>464.5381141589534</v>
+        <v>159.0487474458835</v>
       </c>
       <c r="D12" t="n">
-        <v>464.5381141589534</v>
+        <v>159.0487474458835</v>
       </c>
       <c r="E12" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5132,13 +5132,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>533.6469426057913</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V12" t="n">
-        <v>533.6469426057913</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W12" t="n">
-        <v>533.6469426057913</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X12" t="n">
-        <v>533.6469426057913</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y12" t="n">
-        <v>533.6469426057913</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5235,16 +5235,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>790.6398109613051</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5363,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>790.6398109613051</v>
+        <v>864.9613990922262</v>
       </c>
       <c r="U15" t="n">
-        <v>790.6398109613051</v>
+        <v>636.7377808286153</v>
       </c>
       <c r="V15" t="n">
-        <v>790.6398109613051</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W15" t="n">
-        <v>790.6398109613051</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X15" t="n">
-        <v>790.6398109613051</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.6398109613051</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5472,16 +5472,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V17" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W17" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>554.4520179977666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>405.5176083365153</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>246.2801533310598</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>728.9050472788936</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>728.9050472788936</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
         <v>19.28114311021272</v>
@@ -5694,31 +5694,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.58726043968704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>30.58726043968704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.40970589960398</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>864.9613990922262</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>636.7377808286153</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W21" t="n">
-        <v>446.0215048700907</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>238.1700046645579</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>30.40970589960398</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5889,7 +5889,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C23" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D23" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E23" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X23" t="n">
-        <v>962.2293816994886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y23" t="n">
-        <v>962.2293816994886</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>171.1241970916042</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>171.1241970916042</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>171.1241970916042</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>171.1241970916042</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>171.1241970916042</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>171.1241970916042</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6098,22 +6098,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W24" t="n">
-        <v>547.1910343172051</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X24" t="n">
-        <v>339.3395341116723</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>339.3395341116723</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="27">
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>384.2867411876791</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>176.4352409821462</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>176.4352409821462</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6408,16 +6408,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E29" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F29" t="n">
-        <v>730.8505943024719</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
         <v>31.35113235729608</v>
@@ -6502,13 +6502,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>726.0875267598396</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>577.1531170985884</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6648,13 +6648,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>339.3395341116723</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>200.6087086942878</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>87.23957310186709</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W33" t="n">
-        <v>547.1910343172051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X33" t="n">
-        <v>339.3395341116723</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y33" t="n">
-        <v>339.3395341116723</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6897,7 +6897,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.38115216564972</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>554.1102621044483</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>379.6572328233214</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>379.6572328233214</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
         <v>20.03527576299844</v>
@@ -7256,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>327.2640844659515</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>194.4883050441255</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X39" t="n">
-        <v>194.4883050441255</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y39" t="n">
-        <v>194.4883050441255</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7390,25 +7390,25 @@
         <v>100.4273118130612</v>
       </c>
       <c r="C41" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7444,16 +7444,16 @@
         <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>343.8760884571613</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V41" t="n">
-        <v>343.8760884571613</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8760884571613</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X41" t="n">
-        <v>343.8760884571613</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y41" t="n">
         <v>343.8760884571613</v>
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>360.2295980564601</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="C42" t="n">
-        <v>185.7765687753331</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="D42" t="n">
-        <v>185.7765687753331</v>
+        <v>317.2409336147255</v>
       </c>
       <c r="E42" t="n">
-        <v>185.7765687753331</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F42" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
         <v>20.03527576299844</v>
@@ -7502,10 +7502,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>360.2295980564601</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>360.2295980564601</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X42" t="n">
-        <v>360.2295980564601</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y42" t="n">
-        <v>360.2295980564601</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="43">
@@ -7593,10 +7593,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>587.3248651012614</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>343.8760884571613</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W44" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T45" t="n">
-        <v>798.6875590927584</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U45" t="n">
-        <v>570.4639408291474</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V45" t="n">
-        <v>570.4639408291474</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W45" t="n">
-        <v>570.4639408291474</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X45" t="n">
-        <v>570.4639408291474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>362.7036420641935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7990,13 +7990,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8780,16 +8780,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>360.302996258564</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11150,13 +11150,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>312.84732328326</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>104.2907588259462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>19.27515216308691</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>26.23646281822218</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23737,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23788,16 +23788,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>122.7188606889147</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G19" t="n">
         <v>167.9909793584588</v>
@@ -23934,7 +23934,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>343.4899854645034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24019,16 +24019,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>127.0728313279712</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>367.9216046054329</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24302,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>51.30745364633395</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>109.9948950106095</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10.95062675665318</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>43.24093381563971</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,10 +24578,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>169.9191536744524</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24970,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25010,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>22.86437848593511</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,19 +25049,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>40.9425137950083</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25171,13 +25171,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>130.418315862507</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.7341746849847</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>43.49641013031703</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25453,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25478,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>84.03207252227575</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25520,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>120.2469615333118</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,7 +25630,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>284.9381847551875</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25648,10 +25648,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>142.0904719091984</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>112.9904405818983</v>
       </c>
       <c r="F42" t="n">
-        <v>118.3288494743832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25757,19 +25757,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25833,13 +25833,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>247.4175514543149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>36.44882824112258</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>324013.3114360984</v>
+        <v>324013.3114360982</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>324013.3114360984</v>
+        <v>324013.3114360983</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>324013.3114360983</v>
+        <v>324013.3114360984</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>324013.3114360982</v>
+        <v>324013.3114360984</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>324013.3114360983</v>
+        <v>324013.3114360985</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>324013.3114360984</v>
+        <v>324013.3114360983</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>257549.0424235651</v>
       </c>
       <c r="F2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="G2" t="n">
         <v>257549.0424235651</v>
@@ -26334,7 +26334,7 @@
         <v>257549.0424235651</v>
       </c>
       <c r="I2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="J2" t="n">
         <v>257549.0424235651</v>
@@ -26349,7 +26349,7 @@
         <v>257549.0424235652</v>
       </c>
       <c r="N2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="O2" t="n">
         <v>257549.0424235651</v>
@@ -26423,7 +26423,7 @@
         <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
         <v>179.5324977039669</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251834.3829953798</v>
+        <v>251834.3829953795</v>
       </c>
       <c r="C6" t="n">
         <v>248324.7205622267</v>
       </c>
       <c r="D6" t="n">
-        <v>308901.0427488949</v>
+        <v>308901.0427488946</v>
       </c>
       <c r="E6" t="n">
-        <v>242715.8411620995</v>
+        <v>230497.830542059</v>
       </c>
       <c r="F6" t="n">
-        <v>242715.8411620996</v>
+        <v>230497.830542059</v>
       </c>
       <c r="G6" t="n">
-        <v>242715.8411620995</v>
+        <v>230497.830542059</v>
       </c>
       <c r="H6" t="n">
-        <v>242715.8411620994</v>
+        <v>230497.8305420589</v>
       </c>
       <c r="I6" t="n">
-        <v>242715.8411620994</v>
+        <v>230497.8305420591</v>
       </c>
       <c r="J6" t="n">
-        <v>228714.6090218202</v>
+        <v>216496.5984017797</v>
       </c>
       <c r="K6" t="n">
-        <v>194458.8882284668</v>
+        <v>182240.8776084264</v>
       </c>
       <c r="L6" t="n">
-        <v>242715.8411620995</v>
+        <v>230497.830542059</v>
       </c>
       <c r="M6" t="n">
-        <v>242715.8411620995</v>
+        <v>230497.8305420591</v>
       </c>
       <c r="N6" t="n">
-        <v>242715.8411620995</v>
+        <v>230497.8305420591</v>
       </c>
       <c r="O6" t="n">
-        <v>242715.8411620995</v>
+        <v>230497.830542059</v>
       </c>
       <c r="P6" t="n">
-        <v>242715.8411620994</v>
+        <v>230497.830542059</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>381.682198758905</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -27463,19 +27463,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>101.0578213389329</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>153.7774844691157</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
-        <v>158.3347547678539</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>82.26962551210872</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>221.8426869680169</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27675,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27700,22 +27700,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>142.4493951652474</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>48.04934319980082</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.4099661909219</v>
+        <v>36.78129424836629</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>293.8764487953648</v>
+        <v>301.251446211517</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27934,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27943,13 +27943,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>17.44063101216059</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>40.41943799383367</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>51.35040662570938</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34944,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37791,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37870,13 +37870,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O42" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
